--- a/data/pca/factorExposure/factorExposure_2015-08-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01889769413476747</v>
+        <v>0.01259877332039934</v>
       </c>
       <c r="C2">
-        <v>-0.03034423605732736</v>
+        <v>-0.04430919208774709</v>
       </c>
       <c r="D2">
-        <v>-0.1322397722227544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1410671453161531</v>
+      </c>
+      <c r="E2">
+        <v>-0.002959561211750626</v>
+      </c>
+      <c r="F2">
+        <v>0.004043313474717945</v>
+      </c>
+      <c r="G2">
+        <v>0.111828687613132</v>
+      </c>
+      <c r="H2">
+        <v>-0.04747255164170987</v>
+      </c>
+      <c r="I2">
+        <v>0.06412940448395331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02447299467403232</v>
+        <v>-0.02289225115974565</v>
       </c>
       <c r="C3">
-        <v>-0.04005276981472226</v>
+        <v>-0.02095101235161686</v>
       </c>
       <c r="D3">
-        <v>-0.02178553946405924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.02500688679867684</v>
+      </c>
+      <c r="E3">
+        <v>-0.04426165237448804</v>
+      </c>
+      <c r="F3">
+        <v>0.01637759689217093</v>
+      </c>
+      <c r="G3">
+        <v>0.09245764902617273</v>
+      </c>
+      <c r="H3">
+        <v>-0.02741792491164015</v>
+      </c>
+      <c r="I3">
+        <v>-0.04032243406573931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03259062829485734</v>
+        <v>0.02270163601079374</v>
       </c>
       <c r="C4">
-        <v>-0.07057781876280392</v>
+        <v>-0.08784466804876843</v>
       </c>
       <c r="D4">
-        <v>-0.1393953651995486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1525975190426164</v>
+      </c>
+      <c r="E4">
+        <v>-0.02363771410043639</v>
+      </c>
+      <c r="F4">
+        <v>0.08105708919190574</v>
+      </c>
+      <c r="G4">
+        <v>-0.006259476316890664</v>
+      </c>
+      <c r="H4">
+        <v>-0.04635175204495944</v>
+      </c>
+      <c r="I4">
+        <v>0.002736789814503458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.021607326730673</v>
+        <v>0.02154601261047337</v>
       </c>
       <c r="C6">
-        <v>-0.01575805854652037</v>
+        <v>-0.02907569791774893</v>
       </c>
       <c r="D6">
-        <v>-0.1503785990717524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.13301283911329</v>
+      </c>
+      <c r="E6">
+        <v>0.02966901160013764</v>
+      </c>
+      <c r="F6">
+        <v>0.05844385286335651</v>
+      </c>
+      <c r="G6">
+        <v>0.05072672980399352</v>
+      </c>
+      <c r="H6">
+        <v>-0.02770898962288847</v>
+      </c>
+      <c r="I6">
+        <v>-0.02151080765825424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.00897775731084796</v>
+        <v>0.005433331998191251</v>
       </c>
       <c r="C7">
-        <v>-0.0262319264288807</v>
+        <v>-0.03401414017867817</v>
       </c>
       <c r="D7">
-        <v>-0.1141577654868297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09394129216480981</v>
+      </c>
+      <c r="E7">
+        <v>0.04020975021138357</v>
+      </c>
+      <c r="F7">
+        <v>0.0117647492649626</v>
+      </c>
+      <c r="G7">
+        <v>0.04038172086152821</v>
+      </c>
+      <c r="H7">
+        <v>-0.05669519791503764</v>
+      </c>
+      <c r="I7">
+        <v>-0.04868979922273695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002311111753769826</v>
+        <v>-0.004942237471883315</v>
       </c>
       <c r="C8">
-        <v>-0.0332461958316793</v>
+        <v>-0.0389055886293896</v>
       </c>
       <c r="D8">
-        <v>-0.08319297270479951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0828106067822641</v>
+      </c>
+      <c r="E8">
+        <v>0.01018851006407914</v>
+      </c>
+      <c r="F8">
+        <v>0.05084719288712043</v>
+      </c>
+      <c r="G8">
+        <v>0.09288367818203559</v>
+      </c>
+      <c r="H8">
+        <v>0.004646051333480021</v>
+      </c>
+      <c r="I8">
+        <v>-0.02618784252832425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02706096311806394</v>
+        <v>0.01666441120331972</v>
       </c>
       <c r="C9">
-        <v>-0.06645810652168432</v>
+        <v>-0.07857340129269795</v>
       </c>
       <c r="D9">
-        <v>-0.1312629423410974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1278657265304837</v>
+      </c>
+      <c r="E9">
+        <v>-0.01213809801089248</v>
+      </c>
+      <c r="F9">
+        <v>0.04788149026273934</v>
+      </c>
+      <c r="G9">
+        <v>-0.005567485999464076</v>
+      </c>
+      <c r="H9">
+        <v>-0.04981293215305509</v>
+      </c>
+      <c r="I9">
+        <v>-0.002921658895416425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1593791526776795</v>
+        <v>0.2140579662602087</v>
       </c>
       <c r="C10">
-        <v>0.1632022775874701</v>
+        <v>0.122943720390115</v>
       </c>
       <c r="D10">
-        <v>-0.0172516907590574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01696825773611694</v>
+      </c>
+      <c r="E10">
+        <v>-0.02841970115640211</v>
+      </c>
+      <c r="F10">
+        <v>0.04924946827467708</v>
+      </c>
+      <c r="G10">
+        <v>0.0007123195414949353</v>
+      </c>
+      <c r="H10">
+        <v>0.05821693329271933</v>
+      </c>
+      <c r="I10">
+        <v>-0.1037819594726373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02071105264440103</v>
+        <v>0.01233276511828464</v>
       </c>
       <c r="C11">
-        <v>-0.04346746929914495</v>
+        <v>-0.05208487295974866</v>
       </c>
       <c r="D11">
-        <v>-0.05575017516545967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0497183739379357</v>
+      </c>
+      <c r="E11">
+        <v>0.01984283160041222</v>
+      </c>
+      <c r="F11">
+        <v>-0.01242624714844019</v>
+      </c>
+      <c r="G11">
+        <v>0.009897144471554511</v>
+      </c>
+      <c r="H11">
+        <v>-0.04208145109088728</v>
+      </c>
+      <c r="I11">
+        <v>-0.001965058316188633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02283461583584954</v>
+        <v>0.01336749838760479</v>
       </c>
       <c r="C12">
-        <v>-0.04195258872656251</v>
+        <v>-0.04909242356152201</v>
       </c>
       <c r="D12">
-        <v>-0.06757134396421347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05084773540973055</v>
+      </c>
+      <c r="E12">
+        <v>0.01515607983101287</v>
+      </c>
+      <c r="F12">
+        <v>-0.01490214299178568</v>
+      </c>
+      <c r="G12">
+        <v>0.006283477594226834</v>
+      </c>
+      <c r="H12">
+        <v>-0.06979080533563464</v>
+      </c>
+      <c r="I12">
+        <v>-0.01194192276335653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0009080449456050679</v>
+        <v>0.0002458258021607915</v>
       </c>
       <c r="C13">
-        <v>-0.02789553359905148</v>
+        <v>-0.0408713565409238</v>
       </c>
       <c r="D13">
-        <v>-0.1526855379232034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1573907755989344</v>
+      </c>
+      <c r="E13">
+        <v>0.03623978864016524</v>
+      </c>
+      <c r="F13">
+        <v>0.04509966524281769</v>
+      </c>
+      <c r="G13">
+        <v>0.05728767285736702</v>
+      </c>
+      <c r="H13">
+        <v>-0.05600174097447036</v>
+      </c>
+      <c r="I13">
+        <v>-0.05917519473215956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004466409875692971</v>
+        <v>-0.002373213295635057</v>
       </c>
       <c r="C14">
-        <v>-0.02179677730554942</v>
+        <v>-0.02607594442468473</v>
       </c>
       <c r="D14">
-        <v>-0.1097658221388778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1060490894408016</v>
+      </c>
+      <c r="E14">
+        <v>0.01754259069477456</v>
+      </c>
+      <c r="F14">
+        <v>0.01971500103916223</v>
+      </c>
+      <c r="G14">
+        <v>0.05744135631402118</v>
+      </c>
+      <c r="H14">
+        <v>-0.102378810758893</v>
+      </c>
+      <c r="I14">
+        <v>-0.007718320179922523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002752015820252213</v>
+        <v>-0.001211139735658207</v>
       </c>
       <c r="C15">
-        <v>-0.004404029663689557</v>
+        <v>-0.01625628363685792</v>
       </c>
       <c r="D15">
-        <v>-0.01627506035676479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04535977624112652</v>
+      </c>
+      <c r="E15">
+        <v>0.003086628860050445</v>
+      </c>
+      <c r="F15">
+        <v>0.002428376726252888</v>
+      </c>
+      <c r="G15">
+        <v>0.02297097395917121</v>
+      </c>
+      <c r="H15">
+        <v>-0.01246984622636168</v>
+      </c>
+      <c r="I15">
+        <v>0.01965010034450005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01958455188927374</v>
+        <v>0.0129783902513984</v>
       </c>
       <c r="C16">
-        <v>-0.04041243812421639</v>
+        <v>-0.04760946647872052</v>
       </c>
       <c r="D16">
-        <v>-0.0636624740056885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0520521976422301</v>
+      </c>
+      <c r="E16">
+        <v>0.01908778576500064</v>
+      </c>
+      <c r="F16">
+        <v>-0.006606435470414799</v>
+      </c>
+      <c r="G16">
+        <v>0.003851718604195518</v>
+      </c>
+      <c r="H16">
+        <v>-0.05011997514566332</v>
+      </c>
+      <c r="I16">
+        <v>-0.004384069661399898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001306297550256591</v>
+        <v>-0.003226195652628873</v>
       </c>
       <c r="C19">
-        <v>-0.02268834711726912</v>
+        <v>-0.01776515977182853</v>
       </c>
       <c r="D19">
-        <v>-0.1435735308323861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09994877426249345</v>
+      </c>
+      <c r="E19">
+        <v>-0.02109349165356049</v>
+      </c>
+      <c r="F19">
+        <v>0.008494641104672126</v>
+      </c>
+      <c r="G19">
+        <v>0.03047325134403428</v>
+      </c>
+      <c r="H19">
+        <v>-0.06804935184626591</v>
+      </c>
+      <c r="I19">
+        <v>-0.02553043739768025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002542944960894245</v>
+        <v>0.002766095332147092</v>
       </c>
       <c r="C20">
-        <v>-0.03049269921426436</v>
+        <v>-0.03704536784002643</v>
       </c>
       <c r="D20">
-        <v>-0.09436673643282585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1026590486841962</v>
+      </c>
+      <c r="E20">
+        <v>-0.004780880693054203</v>
+      </c>
+      <c r="F20">
+        <v>0.03097006851464208</v>
+      </c>
+      <c r="G20">
+        <v>0.03563646420304849</v>
+      </c>
+      <c r="H20">
+        <v>-0.05966408227831647</v>
+      </c>
+      <c r="I20">
+        <v>-0.02241588804042477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0006483139642017669</v>
+        <v>-0.002739396375097717</v>
       </c>
       <c r="C21">
-        <v>-0.0353191839234566</v>
+        <v>-0.0416874941382839</v>
       </c>
       <c r="D21">
-        <v>-0.1710073668960688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1487439002694493</v>
+      </c>
+      <c r="E21">
+        <v>-0.01850326201792827</v>
+      </c>
+      <c r="F21">
+        <v>0.06160223744862483</v>
+      </c>
+      <c r="G21">
+        <v>0.06403616153728485</v>
+      </c>
+      <c r="H21">
+        <v>-0.1466954969147716</v>
+      </c>
+      <c r="I21">
+        <v>-0.06803405802744196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003559598139640083</v>
+        <v>-0.005153973762173731</v>
       </c>
       <c r="C22">
-        <v>-0.05373765943412539</v>
+        <v>-0.0653413508397533</v>
       </c>
       <c r="D22">
-        <v>-0.1874102833734039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.236506391111068</v>
+      </c>
+      <c r="E22">
+        <v>0.04311452350663535</v>
+      </c>
+      <c r="F22">
+        <v>0.03140801474980368</v>
+      </c>
+      <c r="G22">
+        <v>0.1656858339725006</v>
+      </c>
+      <c r="H22">
+        <v>0.4557866920665258</v>
+      </c>
+      <c r="I22">
+        <v>0.2371069402450628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003380515997852055</v>
+        <v>-0.00473206547638651</v>
       </c>
       <c r="C23">
-        <v>-0.05414645942513807</v>
+        <v>-0.06621264073435705</v>
       </c>
       <c r="D23">
-        <v>-0.1869675162036739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2372875674088532</v>
+      </c>
+      <c r="E23">
+        <v>0.04029028229733009</v>
+      </c>
+      <c r="F23">
+        <v>0.03029353611139999</v>
+      </c>
+      <c r="G23">
+        <v>0.1641629489865166</v>
+      </c>
+      <c r="H23">
+        <v>0.455839043129678</v>
+      </c>
+      <c r="I23">
+        <v>0.238677495622959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02586903854994968</v>
+        <v>0.01356765429325608</v>
       </c>
       <c r="C24">
-        <v>-0.05798683309248458</v>
+        <v>-0.06363069270221937</v>
       </c>
       <c r="D24">
-        <v>-0.07229780646660799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05645058563021483</v>
+      </c>
+      <c r="E24">
+        <v>0.01877511428470112</v>
+      </c>
+      <c r="F24">
+        <v>-0.0037556586784411</v>
+      </c>
+      <c r="G24">
+        <v>0.01649524891199752</v>
+      </c>
+      <c r="H24">
+        <v>-0.07226783367946772</v>
+      </c>
+      <c r="I24">
+        <v>-0.002917032743869572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02969834739644217</v>
+        <v>0.01794468144239067</v>
       </c>
       <c r="C25">
-        <v>-0.05025848770013025</v>
+        <v>-0.0600897773524304</v>
       </c>
       <c r="D25">
-        <v>-0.06978139943760903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05781936993468396</v>
+      </c>
+      <c r="E25">
+        <v>0.008179851549195533</v>
+      </c>
+      <c r="F25">
+        <v>-0.008417455939503882</v>
+      </c>
+      <c r="G25">
+        <v>0.00410039645379403</v>
+      </c>
+      <c r="H25">
+        <v>-0.04528748172756627</v>
+      </c>
+      <c r="I25">
+        <v>-0.006472366701509651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.003344303461351147</v>
+        <v>0.004288167831426048</v>
       </c>
       <c r="C26">
-        <v>-0.01316459158241439</v>
+        <v>-0.02097194546934969</v>
       </c>
       <c r="D26">
-        <v>-0.07604579817229998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07280681618992683</v>
+      </c>
+      <c r="E26">
+        <v>0.01727316104895867</v>
+      </c>
+      <c r="F26">
+        <v>0.02555437006279035</v>
+      </c>
+      <c r="G26">
+        <v>0.0300231833150847</v>
+      </c>
+      <c r="H26">
+        <v>-0.06359941810803814</v>
+      </c>
+      <c r="I26">
+        <v>-0.04121361771016515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2424311589123913</v>
+        <v>0.3075257286653321</v>
       </c>
       <c r="C28">
-        <v>0.212574887524655</v>
+        <v>0.1474134390017343</v>
       </c>
       <c r="D28">
-        <v>-0.01615811440779508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004733988202926884</v>
+      </c>
+      <c r="E28">
+        <v>-0.0468746835340721</v>
+      </c>
+      <c r="F28">
+        <v>0.03666495574093934</v>
+      </c>
+      <c r="G28">
+        <v>-0.02377302849358451</v>
+      </c>
+      <c r="H28">
+        <v>0.03272122208865129</v>
+      </c>
+      <c r="I28">
+        <v>-0.07581149692166739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.004835107533420302</v>
+        <v>-0.002354588356947121</v>
       </c>
       <c r="C29">
-        <v>-0.0203641436888704</v>
+        <v>-0.02590848790952248</v>
       </c>
       <c r="D29">
-        <v>-0.1015583600794293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1040389670256558</v>
+      </c>
+      <c r="E29">
+        <v>0.03116001802381076</v>
+      </c>
+      <c r="F29">
+        <v>0.03096710409092994</v>
+      </c>
+      <c r="G29">
+        <v>0.0457702645289313</v>
+      </c>
+      <c r="H29">
+        <v>-0.09987967063419229</v>
+      </c>
+      <c r="I29">
+        <v>-0.01883944327274309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01303133600167024</v>
+        <v>0.01135507586029705</v>
       </c>
       <c r="C30">
-        <v>-0.06155748643624346</v>
+        <v>-0.07707402585517707</v>
       </c>
       <c r="D30">
-        <v>-0.1670881460308228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1674633737754726</v>
+      </c>
+      <c r="E30">
+        <v>0.03295226220442212</v>
+      </c>
+      <c r="F30">
+        <v>0.03921774796426285</v>
+      </c>
+      <c r="G30">
+        <v>0.04034551931540729</v>
+      </c>
+      <c r="H30">
+        <v>-0.03588816428669481</v>
+      </c>
+      <c r="I30">
+        <v>0.03855110234654689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03883823659183606</v>
+        <v>0.01791589821151164</v>
       </c>
       <c r="C31">
-        <v>-0.0831297557432099</v>
+        <v>-0.08792418790378195</v>
       </c>
       <c r="D31">
-        <v>-0.07537968147245831</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04839652815838473</v>
+      </c>
+      <c r="E31">
+        <v>0.004936578742312664</v>
+      </c>
+      <c r="F31">
+        <v>0.0209469007346797</v>
+      </c>
+      <c r="G31">
+        <v>0.02529535153773239</v>
+      </c>
+      <c r="H31">
+        <v>-0.03762009960064339</v>
+      </c>
+      <c r="I31">
+        <v>-0.05654584601690579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02139122600091387</v>
+        <v>0.0171762235967442</v>
       </c>
       <c r="C32">
-        <v>-0.02904570199301441</v>
+        <v>-0.03537999925941814</v>
       </c>
       <c r="D32">
-        <v>-0.1121413883060781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1185283547718735</v>
+      </c>
+      <c r="E32">
+        <v>-0.0003518334864977777</v>
+      </c>
+      <c r="F32">
+        <v>0.04459381898193209</v>
+      </c>
+      <c r="G32">
+        <v>0.02557858402926622</v>
+      </c>
+      <c r="H32">
+        <v>-0.01595342120685425</v>
+      </c>
+      <c r="I32">
+        <v>-0.06702843548142022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01163479872700971</v>
+        <v>0.008697714872678571</v>
       </c>
       <c r="C33">
-        <v>-0.04224804810652398</v>
+        <v>-0.05250618278036204</v>
       </c>
       <c r="D33">
-        <v>-0.1512888088371344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1342806832981936</v>
+      </c>
+      <c r="E33">
+        <v>0.00970810906925876</v>
+      </c>
+      <c r="F33">
+        <v>0.02408304522995487</v>
+      </c>
+      <c r="G33">
+        <v>0.02759901770338664</v>
+      </c>
+      <c r="H33">
+        <v>-0.05704276368385441</v>
+      </c>
+      <c r="I33">
+        <v>-0.009380888120892541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02511379683519669</v>
+        <v>0.01244701584601923</v>
       </c>
       <c r="C34">
-        <v>-0.06103857065968706</v>
+        <v>-0.06392950507611038</v>
       </c>
       <c r="D34">
-        <v>-0.05535107329529843</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03813484330423062</v>
+      </c>
+      <c r="E34">
+        <v>0.03047701022321814</v>
+      </c>
+      <c r="F34">
+        <v>-0.03508417865417306</v>
+      </c>
+      <c r="G34">
+        <v>0.01520555530069515</v>
+      </c>
+      <c r="H34">
+        <v>-0.05588790030617356</v>
+      </c>
+      <c r="I34">
+        <v>-0.02009579667580088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00100996724770374</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.003500563400944306</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01337648725750648</v>
+      </c>
+      <c r="E35">
+        <v>0.001645415919639063</v>
+      </c>
+      <c r="F35">
+        <v>-0.00145036633581127</v>
+      </c>
+      <c r="G35">
+        <v>0.0004305160344286811</v>
+      </c>
+      <c r="H35">
+        <v>-0.006910847826913248</v>
+      </c>
+      <c r="I35">
+        <v>0.003172159887977299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009045941116391608</v>
+        <v>0.01047594219867098</v>
       </c>
       <c r="C36">
-        <v>-0.004279278486095578</v>
+        <v>-0.01631499670630297</v>
       </c>
       <c r="D36">
-        <v>-0.09800310706695856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08806346420082603</v>
+      </c>
+      <c r="E36">
+        <v>0.005460156309586345</v>
+      </c>
+      <c r="F36">
+        <v>0.03189110052680153</v>
+      </c>
+      <c r="G36">
+        <v>0.01782013374876233</v>
+      </c>
+      <c r="H36">
+        <v>-0.05636800044201761</v>
+      </c>
+      <c r="I36">
+        <v>-0.01789137327430762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008775938323462363</v>
+        <v>0.01490351187881058</v>
       </c>
       <c r="C38">
-        <v>-0.0115808866365476</v>
+        <v>-0.01850212981310593</v>
       </c>
       <c r="D38">
-        <v>-0.08589366722990077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08407218122231144</v>
+      </c>
+      <c r="E38">
+        <v>-0.01400100510547184</v>
+      </c>
+      <c r="F38">
+        <v>-0.01710274223432174</v>
+      </c>
+      <c r="G38">
+        <v>0.0304343751566824</v>
+      </c>
+      <c r="H38">
+        <v>-0.04651194472652643</v>
+      </c>
+      <c r="I38">
+        <v>-0.002553137614727191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02241664022495042</v>
+        <v>0.01125125315511871</v>
       </c>
       <c r="C39">
-        <v>-0.0574470096721292</v>
+        <v>-0.07316186465992661</v>
       </c>
       <c r="D39">
-        <v>-0.1076214066690507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1026322135724633</v>
+      </c>
+      <c r="E39">
+        <v>0.04319127186318455</v>
+      </c>
+      <c r="F39">
+        <v>-0.01114577703947818</v>
+      </c>
+      <c r="G39">
+        <v>0.01786778538807312</v>
+      </c>
+      <c r="H39">
+        <v>-0.09319407589005425</v>
+      </c>
+      <c r="I39">
+        <v>0.04046565798783121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.008770179796794583</v>
+        <v>0.00371774614677997</v>
       </c>
       <c r="C40">
-        <v>-0.04148576550488617</v>
+        <v>-0.03915915785931331</v>
       </c>
       <c r="D40">
-        <v>-0.1167386831365147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1011566777910868</v>
+      </c>
+      <c r="E40">
+        <v>0.01198827487171499</v>
+      </c>
+      <c r="F40">
+        <v>0.03090289921035514</v>
+      </c>
+      <c r="G40">
+        <v>0.2416565499694748</v>
+      </c>
+      <c r="H40">
+        <v>-0.03163641485920487</v>
+      </c>
+      <c r="I40">
+        <v>-0.1001215963874246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.02080801432851534</v>
+        <v>0.01957847765893357</v>
       </c>
       <c r="C41">
-        <v>0.0001648401714858168</v>
+        <v>-0.01044281365315491</v>
       </c>
       <c r="D41">
-        <v>-0.07389772340764443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05400142257474069</v>
+      </c>
+      <c r="E41">
+        <v>-0.02032447990845418</v>
+      </c>
+      <c r="F41">
+        <v>0.01470105216245382</v>
+      </c>
+      <c r="G41">
+        <v>0.02552014595196915</v>
+      </c>
+      <c r="H41">
+        <v>-0.02725245664857549</v>
+      </c>
+      <c r="I41">
+        <v>-0.04343977718396035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01262874475212532</v>
+        <v>0.01079299811270175</v>
       </c>
       <c r="C43">
-        <v>-0.007573706934383223</v>
+        <v>-0.0141494367008763</v>
       </c>
       <c r="D43">
-        <v>-0.08934821486354101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06603018351256533</v>
+      </c>
+      <c r="E43">
+        <v>-0.005833996143370242</v>
+      </c>
+      <c r="F43">
+        <v>0.01045785572889189</v>
+      </c>
+      <c r="G43">
+        <v>0.02995625808473255</v>
+      </c>
+      <c r="H43">
+        <v>-0.05665521173584873</v>
+      </c>
+      <c r="I43">
+        <v>-0.04115834247875389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.001418851996502936</v>
+        <v>0.001675735839158335</v>
       </c>
       <c r="C44">
-        <v>-0.03909178370168085</v>
+        <v>-0.04221245012706995</v>
       </c>
       <c r="D44">
-        <v>-0.1002167309360425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1155378169675306</v>
+      </c>
+      <c r="E44">
+        <v>0.0005795218178660058</v>
+      </c>
+      <c r="F44">
+        <v>0.02456209394908775</v>
+      </c>
+      <c r="G44">
+        <v>0.03554815462531089</v>
+      </c>
+      <c r="H44">
+        <v>-0.04886554369977853</v>
+      </c>
+      <c r="I44">
+        <v>0.03608016427063262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005708685567419271</v>
+        <v>0.0002092405288109693</v>
       </c>
       <c r="C46">
-        <v>-0.02697678287720563</v>
+        <v>-0.03270390879238346</v>
       </c>
       <c r="D46">
-        <v>-0.1088235003070949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09438819566216268</v>
+      </c>
+      <c r="E46">
+        <v>0.0161748491513125</v>
+      </c>
+      <c r="F46">
+        <v>0.02428407687620746</v>
+      </c>
+      <c r="G46">
+        <v>0.04361229364631682</v>
+      </c>
+      <c r="H46">
+        <v>-0.1127375048449946</v>
+      </c>
+      <c r="I46">
+        <v>-0.03026952090931289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07740204223995392</v>
+        <v>0.04626070775436167</v>
       </c>
       <c r="C47">
-        <v>-0.1036763528690699</v>
+        <v>-0.1165074130600231</v>
       </c>
       <c r="D47">
-        <v>-0.05979479985441667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03102566422967384</v>
+      </c>
+      <c r="E47">
+        <v>-0.01128119507723502</v>
+      </c>
+      <c r="F47">
+        <v>-0.002198035611512585</v>
+      </c>
+      <c r="G47">
+        <v>-0.02222680239433644</v>
+      </c>
+      <c r="H47">
+        <v>-0.03453976688333314</v>
+      </c>
+      <c r="I47">
+        <v>-0.1121574415739049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.003541968540824058</v>
+        <v>0.005283731906197788</v>
       </c>
       <c r="C48">
-        <v>-0.01687560667833357</v>
+        <v>-0.02468352612764915</v>
       </c>
       <c r="D48">
-        <v>-0.09115779416365587</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09052853184733539</v>
+      </c>
+      <c r="E48">
+        <v>-0.01253047344679852</v>
+      </c>
+      <c r="F48">
+        <v>0.03511784784379856</v>
+      </c>
+      <c r="G48">
+        <v>0.03445294130859732</v>
+      </c>
+      <c r="H48">
+        <v>-0.072964603018584</v>
+      </c>
+      <c r="I48">
+        <v>-0.01648032417200528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03634473286298968</v>
+        <v>0.01932086358677446</v>
       </c>
       <c r="C50">
-        <v>-0.06442315568917428</v>
+        <v>-0.07296302452676269</v>
       </c>
       <c r="D50">
-        <v>-0.07894715139227103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05932776272630998</v>
+      </c>
+      <c r="E50">
+        <v>0.0001019564557274147</v>
+      </c>
+      <c r="F50">
+        <v>0.01010222482717034</v>
+      </c>
+      <c r="G50">
+        <v>0.03680756169020743</v>
+      </c>
+      <c r="H50">
+        <v>-0.01889904999736026</v>
+      </c>
+      <c r="I50">
+        <v>-0.09278653715772825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0002054214162744907</v>
+        <v>0.0002675339419159723</v>
       </c>
       <c r="C51">
-        <v>-0.01020718613354173</v>
+        <v>-0.01663277122432021</v>
       </c>
       <c r="D51">
-        <v>-0.06813589854480294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07485143469905631</v>
+      </c>
+      <c r="E51">
+        <v>0.02643664600863867</v>
+      </c>
+      <c r="F51">
+        <v>0.03931732119238773</v>
+      </c>
+      <c r="G51">
+        <v>0.05240813769994905</v>
+      </c>
+      <c r="H51">
+        <v>-0.04661705922266901</v>
+      </c>
+      <c r="I51">
+        <v>-0.01110653735762569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09587826871208492</v>
+        <v>0.06572067667140212</v>
       </c>
       <c r="C53">
-        <v>-0.1256657685289463</v>
+        <v>-0.1484001759557142</v>
       </c>
       <c r="D53">
-        <v>-0.02239728674523869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01059569090633187</v>
+      </c>
+      <c r="E53">
+        <v>-0.04734992758193878</v>
+      </c>
+      <c r="F53">
+        <v>0.06836681865293148</v>
+      </c>
+      <c r="G53">
+        <v>0.03220787769023976</v>
+      </c>
+      <c r="H53">
+        <v>-0.003327404628091994</v>
+      </c>
+      <c r="I53">
+        <v>-0.09222853211162721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01079404244061344</v>
+        <v>0.007645505952021041</v>
       </c>
       <c r="C54">
-        <v>-0.02264219246868715</v>
+        <v>-0.03348034880297434</v>
       </c>
       <c r="D54">
-        <v>-0.1144642289652567</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0959681564172797</v>
+      </c>
+      <c r="E54">
+        <v>0.007279382830244535</v>
+      </c>
+      <c r="F54">
+        <v>0.00336433946742546</v>
+      </c>
+      <c r="G54">
+        <v>0.058849958691469</v>
+      </c>
+      <c r="H54">
+        <v>-0.06754836137187971</v>
+      </c>
+      <c r="I54">
+        <v>-0.05669474240827821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.08811185892540867</v>
+        <v>0.05639652365647569</v>
       </c>
       <c r="C55">
-        <v>-0.1047550190594912</v>
+        <v>-0.1240648212833495</v>
       </c>
       <c r="D55">
-        <v>-0.006175073220346934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005881213835662848</v>
+      </c>
+      <c r="E55">
+        <v>-0.00837279728260071</v>
+      </c>
+      <c r="F55">
+        <v>0.03452087661604165</v>
+      </c>
+      <c r="G55">
+        <v>0.04431000301294209</v>
+      </c>
+      <c r="H55">
+        <v>0.01047719757667086</v>
+      </c>
+      <c r="I55">
+        <v>-0.07444359692224219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1217804964882918</v>
+        <v>0.07844677541686645</v>
       </c>
       <c r="C56">
-        <v>-0.1373469984652642</v>
+        <v>-0.1731852431997905</v>
       </c>
       <c r="D56">
-        <v>-0.00121913017796645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008931300802793187</v>
+      </c>
+      <c r="E56">
+        <v>-0.03890249029148093</v>
+      </c>
+      <c r="F56">
+        <v>0.03177340945991139</v>
+      </c>
+      <c r="G56">
+        <v>0.05858368422705797</v>
+      </c>
+      <c r="H56">
+        <v>0.02667523292249196</v>
+      </c>
+      <c r="I56">
+        <v>-0.08113053240954661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02605616794109674</v>
+        <v>-0.01189849997334608</v>
       </c>
       <c r="C58">
-        <v>-0.02201787097833592</v>
+        <v>-0.0396767592798599</v>
       </c>
       <c r="D58">
-        <v>-0.2122947556987632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2837399757146042</v>
+      </c>
+      <c r="E58">
+        <v>-0.04128180774336973</v>
+      </c>
+      <c r="F58">
+        <v>0.09136976931077176</v>
+      </c>
+      <c r="G58">
+        <v>0.08246832156116558</v>
+      </c>
+      <c r="H58">
+        <v>0.1424663171502947</v>
+      </c>
+      <c r="I58">
+        <v>0.06132388938751542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.172162216041392</v>
+        <v>0.2273072645774116</v>
       </c>
       <c r="C59">
-        <v>0.1471786255033714</v>
+        <v>0.09747914254452703</v>
       </c>
       <c r="D59">
-        <v>-0.05082225893342283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06558419922714628</v>
+      </c>
+      <c r="E59">
+        <v>-0.03652153978423642</v>
+      </c>
+      <c r="F59">
+        <v>0.006311983995462258</v>
+      </c>
+      <c r="G59">
+        <v>-0.00329252186228679</v>
+      </c>
+      <c r="H59">
+        <v>0.01555076950496433</v>
+      </c>
+      <c r="I59">
+        <v>0.002362893274352104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2036881704285415</v>
+        <v>0.1669159782138333</v>
       </c>
       <c r="C60">
-        <v>-0.1058543267627901</v>
+        <v>-0.162288787302662</v>
       </c>
       <c r="D60">
-        <v>-0.1737157776549655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.09104963593517006</v>
+      </c>
+      <c r="E60">
+        <v>0.2727756754038992</v>
+      </c>
+      <c r="F60">
+        <v>-0.1589786288975394</v>
+      </c>
+      <c r="G60">
+        <v>-0.2482440270602481</v>
+      </c>
+      <c r="H60">
+        <v>0.1224698566724055</v>
+      </c>
+      <c r="I60">
+        <v>0.03217054167945917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0309144624816193</v>
+        <v>0.01724266953953628</v>
       </c>
       <c r="C61">
-        <v>-0.05823963807891418</v>
+        <v>-0.07068608406720757</v>
       </c>
       <c r="D61">
-        <v>-0.1166511021140891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0905020058933806</v>
+      </c>
+      <c r="E61">
+        <v>0.0314765207436512</v>
+      </c>
+      <c r="F61">
+        <v>-0.01435616755327138</v>
+      </c>
+      <c r="G61">
+        <v>0.008353066350519908</v>
+      </c>
+      <c r="H61">
+        <v>-0.09313631190181756</v>
+      </c>
+      <c r="I61">
+        <v>-0.02919370363653474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007602130080410633</v>
+        <v>0.003720877552683178</v>
       </c>
       <c r="C63">
-        <v>-0.02511297389066864</v>
+        <v>-0.03388493826899332</v>
       </c>
       <c r="D63">
-        <v>-0.09559432180100064</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07698347415838737</v>
+      </c>
+      <c r="E63">
+        <v>0.02005729190515077</v>
+      </c>
+      <c r="F63">
+        <v>0.02072631978270926</v>
+      </c>
+      <c r="G63">
+        <v>0.02937543944051509</v>
+      </c>
+      <c r="H63">
+        <v>-0.05403319577125634</v>
+      </c>
+      <c r="I63">
+        <v>-0.01115209182623003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05060484451104641</v>
+        <v>0.02677274537564347</v>
       </c>
       <c r="C64">
-        <v>-0.08401440690288521</v>
+        <v>-0.09608174294500163</v>
       </c>
       <c r="D64">
-        <v>-0.06503527789444923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05233877428277641</v>
+      </c>
+      <c r="E64">
+        <v>0.02201698426507243</v>
+      </c>
+      <c r="F64">
+        <v>0.03481145234711351</v>
+      </c>
+      <c r="G64">
+        <v>-0.02039496725766798</v>
+      </c>
+      <c r="H64">
+        <v>-0.1183871548031451</v>
+      </c>
+      <c r="I64">
+        <v>-0.02300176591860478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02176488108400259</v>
+        <v>0.01592873929123255</v>
       </c>
       <c r="C65">
-        <v>-0.01801993711146449</v>
+        <v>-0.03581197313512694</v>
       </c>
       <c r="D65">
-        <v>-0.1199225206354245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1081779358920062</v>
+      </c>
+      <c r="E65">
+        <v>0.0367489104308287</v>
+      </c>
+      <c r="F65">
+        <v>0.01346250973836203</v>
+      </c>
+      <c r="G65">
+        <v>0.01632756536966334</v>
+      </c>
+      <c r="H65">
+        <v>-0.01356029956634484</v>
+      </c>
+      <c r="I65">
+        <v>-0.008951925212179808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02407473149939934</v>
+        <v>0.01122135732185521</v>
       </c>
       <c r="C66">
-        <v>-0.0652711190460747</v>
+        <v>-0.08569463527502039</v>
       </c>
       <c r="D66">
-        <v>-0.1216249740284604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1314328782152047</v>
+      </c>
+      <c r="E66">
+        <v>0.03602591430210716</v>
+      </c>
+      <c r="F66">
+        <v>-0.01983604780016958</v>
+      </c>
+      <c r="G66">
+        <v>0.01309761907734043</v>
+      </c>
+      <c r="H66">
+        <v>-0.05597969580829083</v>
+      </c>
+      <c r="I66">
+        <v>0.04587057703805716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03032011835478921</v>
+        <v>0.02830744011515011</v>
       </c>
       <c r="C67">
-        <v>-0.02324029381215268</v>
+        <v>-0.03169761550686463</v>
       </c>
       <c r="D67">
-        <v>-0.0399892024989281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03208096115919392</v>
+      </c>
+      <c r="E67">
+        <v>0.001457641334759349</v>
+      </c>
+      <c r="F67">
+        <v>-0.03458199891373952</v>
+      </c>
+      <c r="G67">
+        <v>0.02385478281063977</v>
+      </c>
+      <c r="H67">
+        <v>-0.05640075404057918</v>
+      </c>
+      <c r="I67">
+        <v>-0.0007338664197230035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2129985375067402</v>
+        <v>0.259889773530661</v>
       </c>
       <c r="C68">
-        <v>0.1635358751792084</v>
+        <v>0.1002324000066261</v>
       </c>
       <c r="D68">
-        <v>-0.03532340680068305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03706238325349975</v>
+      </c>
+      <c r="E68">
+        <v>-0.001895740634534676</v>
+      </c>
+      <c r="F68">
+        <v>0.02679960411392976</v>
+      </c>
+      <c r="G68">
+        <v>0.04376711333993518</v>
+      </c>
+      <c r="H68">
+        <v>0.04576163770714291</v>
+      </c>
+      <c r="I68">
+        <v>-0.05299571785747871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06318071276350942</v>
+        <v>0.03472005229513925</v>
       </c>
       <c r="C69">
-        <v>-0.1108895089689021</v>
+        <v>-0.1163152133928428</v>
       </c>
       <c r="D69">
-        <v>-0.08601716537390632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04466446054005747</v>
+      </c>
+      <c r="E69">
+        <v>0.006048710204822289</v>
+      </c>
+      <c r="F69">
+        <v>-0.007683643597993726</v>
+      </c>
+      <c r="G69">
+        <v>-0.01317903103500127</v>
+      </c>
+      <c r="H69">
+        <v>-0.03771681182149797</v>
+      </c>
+      <c r="I69">
+        <v>-0.07505204084994205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2098911782303656</v>
+        <v>0.2570154025525018</v>
       </c>
       <c r="C71">
-        <v>0.1762006443131909</v>
+        <v>0.1146564730491416</v>
       </c>
       <c r="D71">
-        <v>-0.04064873895468685</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03598078851881073</v>
+      </c>
+      <c r="E71">
+        <v>-0.01221530067819018</v>
+      </c>
+      <c r="F71">
+        <v>0.03253943235229476</v>
+      </c>
+      <c r="G71">
+        <v>0.06081393461727689</v>
+      </c>
+      <c r="H71">
+        <v>0.01115169718546835</v>
+      </c>
+      <c r="I71">
+        <v>-0.1514765788799191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1017598790372006</v>
+        <v>0.0684245803633118</v>
       </c>
       <c r="C72">
-        <v>-0.07898852318996677</v>
+        <v>-0.1168807134383692</v>
       </c>
       <c r="D72">
-        <v>-0.09372742641066389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07359104629994649</v>
+      </c>
+      <c r="E72">
+        <v>0.08810293361274867</v>
+      </c>
+      <c r="F72">
+        <v>-0.001119300255451088</v>
+      </c>
+      <c r="G72">
+        <v>0.01253022571104493</v>
+      </c>
+      <c r="H72">
+        <v>-0.0551963340767356</v>
+      </c>
+      <c r="I72">
+        <v>-0.0006830973193340237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1877682870615099</v>
+        <v>0.1501109761040896</v>
       </c>
       <c r="C73">
-        <v>-0.06088496013478014</v>
+        <v>-0.1295876783028444</v>
       </c>
       <c r="D73">
-        <v>-0.2149624288531664</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.07082200328076428</v>
+      </c>
+      <c r="E73">
+        <v>0.4577493410667879</v>
+      </c>
+      <c r="F73">
+        <v>-0.2419135599355048</v>
+      </c>
+      <c r="G73">
+        <v>-0.4069316601554339</v>
+      </c>
+      <c r="H73">
+        <v>0.03404207818759388</v>
+      </c>
+      <c r="I73">
+        <v>0.02953933841669636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.09649469012987366</v>
+        <v>0.06080285420816594</v>
       </c>
       <c r="C74">
-        <v>-0.1100784373831233</v>
+        <v>-0.1316241521482153</v>
       </c>
       <c r="D74">
-        <v>0.01644660488587359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02778936417750614</v>
+      </c>
+      <c r="E74">
+        <v>-0.02584354005244476</v>
+      </c>
+      <c r="F74">
+        <v>0.06360994534164777</v>
+      </c>
+      <c r="G74">
+        <v>0.008588371482124185</v>
+      </c>
+      <c r="H74">
+        <v>0.0230319908798521</v>
+      </c>
+      <c r="I74">
+        <v>-0.09482543045782434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2428707344397193</v>
+        <v>0.1639421592577151</v>
       </c>
       <c r="C75">
-        <v>-0.1999533345728518</v>
+        <v>-0.2569335482973433</v>
       </c>
       <c r="D75">
-        <v>0.103065092213689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.122408717930164</v>
+      </c>
+      <c r="E75">
+        <v>-0.0830937799484144</v>
+      </c>
+      <c r="F75">
+        <v>-0.02657133697516348</v>
+      </c>
+      <c r="G75">
+        <v>0.05960746424377587</v>
+      </c>
+      <c r="H75">
+        <v>0.02509328056422175</v>
+      </c>
+      <c r="I75">
+        <v>-0.09095103832939253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1354665365731522</v>
+        <v>0.08703762596720672</v>
       </c>
       <c r="C76">
-        <v>-0.1396154396692126</v>
+        <v>-0.1712614476622854</v>
       </c>
       <c r="D76">
-        <v>-0.0158278703688438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.009301849359545328</v>
+      </c>
+      <c r="E76">
+        <v>-0.03774576589855208</v>
+      </c>
+      <c r="F76">
+        <v>0.01753235712979731</v>
+      </c>
+      <c r="G76">
+        <v>0.0548334300468741</v>
+      </c>
+      <c r="H76">
+        <v>-0.01086740700705476</v>
+      </c>
+      <c r="I76">
+        <v>-0.08704839200389428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02328986275043977</v>
+        <v>0.03252519647819755</v>
       </c>
       <c r="C77">
-        <v>-0.08094040191529966</v>
+        <v>-0.09218231629164018</v>
       </c>
       <c r="D77">
-        <v>-0.0499451119555719</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2431589153447483</v>
+      </c>
+      <c r="E77">
+        <v>-0.6849087615092952</v>
+      </c>
+      <c r="F77">
+        <v>-0.4145628531166318</v>
+      </c>
+      <c r="G77">
+        <v>-0.3376157373549873</v>
+      </c>
+      <c r="H77">
+        <v>0.2327575496699471</v>
+      </c>
+      <c r="I77">
+        <v>-0.1184499421840487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02134765005255638</v>
+        <v>0.01742478282222415</v>
       </c>
       <c r="C78">
-        <v>-0.06904872029340428</v>
+        <v>-0.08061520970197772</v>
       </c>
       <c r="D78">
-        <v>-0.1623834320769019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1470877400648883</v>
+      </c>
+      <c r="E78">
+        <v>0.04510223282550774</v>
+      </c>
+      <c r="F78">
+        <v>0.03945757989693226</v>
+      </c>
+      <c r="G78">
+        <v>0.01156517759789367</v>
+      </c>
+      <c r="H78">
+        <v>-0.02126568117852133</v>
+      </c>
+      <c r="I78">
+        <v>0.03765494795126319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.0666116740111362</v>
+        <v>0.04225743764639791</v>
       </c>
       <c r="C79">
-        <v>-0.1387269883733289</v>
+        <v>-0.1577458551510672</v>
       </c>
       <c r="D79">
-        <v>0.07882021141791323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03036647905306953</v>
+      </c>
+      <c r="E79">
+        <v>-0.1579122519034404</v>
+      </c>
+      <c r="F79">
+        <v>0.7597840959500074</v>
+      </c>
+      <c r="G79">
+        <v>-0.5064707035753616</v>
+      </c>
+      <c r="H79">
+        <v>0.06663541527248516</v>
+      </c>
+      <c r="I79">
+        <v>0.1495648465823751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009830331667920343</v>
+        <v>0.003892780582288635</v>
       </c>
       <c r="C80">
-        <v>-0.05548815277899956</v>
+        <v>-0.05519091009060884</v>
       </c>
       <c r="D80">
-        <v>-0.03720504514254048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03583897247092878</v>
+      </c>
+      <c r="E80">
+        <v>0.01439441874995583</v>
+      </c>
+      <c r="F80">
+        <v>0.01454445537640299</v>
+      </c>
+      <c r="G80">
+        <v>0.06946090606967535</v>
+      </c>
+      <c r="H80">
+        <v>-0.008019443203010934</v>
+      </c>
+      <c r="I80">
+        <v>-0.01065935672691596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.123242105844489</v>
+        <v>0.07327350124052276</v>
       </c>
       <c r="C81">
-        <v>-0.1443623440657899</v>
+        <v>-0.1677827274239318</v>
       </c>
       <c r="D81">
-        <v>0.06901682979639384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07578315062643153</v>
+      </c>
+      <c r="E81">
+        <v>-0.07836407244192696</v>
+      </c>
+      <c r="F81">
+        <v>0.05019718092466376</v>
+      </c>
+      <c r="G81">
+        <v>0.07225471465367844</v>
+      </c>
+      <c r="H81">
+        <v>-0.04384652883292879</v>
+      </c>
+      <c r="I81">
+        <v>-0.1139214929054475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2358435911908217</v>
+        <v>0.1353623194862739</v>
       </c>
       <c r="C82">
-        <v>-0.2976119097740776</v>
+        <v>-0.3160949682199017</v>
       </c>
       <c r="D82">
-        <v>0.2059284176816805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2116223447959613</v>
+      </c>
+      <c r="E82">
+        <v>-0.04640997273194626</v>
+      </c>
+      <c r="F82">
+        <v>-0.08232157060578935</v>
+      </c>
+      <c r="G82">
+        <v>0.09296803244649821</v>
+      </c>
+      <c r="H82">
+        <v>-0.05527737425438711</v>
+      </c>
+      <c r="I82">
+        <v>-0.10448817524454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.006762018402514851</v>
+        <v>-0.005303810812038077</v>
       </c>
       <c r="C83">
-        <v>-0.06243758903607954</v>
+        <v>-0.05249874954531586</v>
       </c>
       <c r="D83">
-        <v>-0.02456594127428407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04159577882825995</v>
+      </c>
+      <c r="E83">
+        <v>-0.09493578310706267</v>
+      </c>
+      <c r="F83">
+        <v>-0.02559306967255881</v>
+      </c>
+      <c r="G83">
+        <v>0.02611256662800078</v>
+      </c>
+      <c r="H83">
+        <v>-0.05397027159763653</v>
+      </c>
+      <c r="I83">
+        <v>0.1171342120929113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001745717096476038</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.01319458415042032</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0335787771093588</v>
+      </c>
+      <c r="E84">
+        <v>-0.007655196871027998</v>
+      </c>
+      <c r="F84">
+        <v>0.01811523444925986</v>
+      </c>
+      <c r="G84">
+        <v>0.03605750757780443</v>
+      </c>
+      <c r="H84">
+        <v>0.00486316581827137</v>
+      </c>
+      <c r="I84">
+        <v>0.02962456155482805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1531981154241035</v>
+        <v>0.09562935873705126</v>
       </c>
       <c r="C85">
-        <v>-0.1446987939645943</v>
+        <v>-0.1886220753729303</v>
       </c>
       <c r="D85">
-        <v>0.05206005210864653</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08736513419677884</v>
+      </c>
+      <c r="E85">
+        <v>-0.004814713432547229</v>
+      </c>
+      <c r="F85">
+        <v>0.07801005345320929</v>
+      </c>
+      <c r="G85">
+        <v>0.0170283147802797</v>
+      </c>
+      <c r="H85">
+        <v>0.01555993936149018</v>
+      </c>
+      <c r="I85">
+        <v>-0.08590271319559782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.008079975510215845</v>
+        <v>0.008404231728511503</v>
       </c>
       <c r="C86">
-        <v>-0.0268100536713573</v>
+        <v>-0.02938453459590635</v>
       </c>
       <c r="D86">
-        <v>-0.09135518841793618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1081614020055868</v>
+      </c>
+      <c r="E86">
+        <v>-0.04508299944020698</v>
+      </c>
+      <c r="F86">
+        <v>-0.01740861274501065</v>
+      </c>
+      <c r="G86">
+        <v>0.01804690493436507</v>
+      </c>
+      <c r="H86">
+        <v>-0.01146085658111731</v>
+      </c>
+      <c r="I86">
+        <v>-0.08199409413826846</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01742784746932131</v>
+        <v>0.01882091543376474</v>
       </c>
       <c r="C87">
-        <v>-0.02470805306413524</v>
+        <v>-0.04323913505836849</v>
       </c>
       <c r="D87">
-        <v>-0.1245339255608407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1486920268365865</v>
+      </c>
+      <c r="E87">
+        <v>-0.01416917665862443</v>
+      </c>
+      <c r="F87">
+        <v>0.03529393821670317</v>
+      </c>
+      <c r="G87">
+        <v>0.05717679901850055</v>
+      </c>
+      <c r="H87">
+        <v>-0.02281168680286877</v>
+      </c>
+      <c r="I87">
+        <v>0.08116961917633102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05991575898356393</v>
+        <v>0.04079874125204254</v>
       </c>
       <c r="C88">
-        <v>-0.04671391997215046</v>
+        <v>-0.0653992078836885</v>
       </c>
       <c r="D88">
-        <v>-0.04219144569096071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01254135688563141</v>
+      </c>
+      <c r="E88">
+        <v>0.01658777278304011</v>
+      </c>
+      <c r="F88">
+        <v>0.02369105721462512</v>
+      </c>
+      <c r="G88">
+        <v>-0.00728232805932699</v>
+      </c>
+      <c r="H88">
+        <v>-0.02086580613140399</v>
+      </c>
+      <c r="I88">
+        <v>-0.04292478337041281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3253000111652145</v>
+        <v>0.3935944369047567</v>
       </c>
       <c r="C89">
-        <v>0.3326543277543754</v>
+        <v>0.2167772650374843</v>
       </c>
       <c r="D89">
-        <v>-0.01223814654114262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02519216828693756</v>
+      </c>
+      <c r="E89">
+        <v>-0.04738081768629598</v>
+      </c>
+      <c r="F89">
+        <v>0.03859619393851494</v>
+      </c>
+      <c r="G89">
+        <v>0.05027006193227841</v>
+      </c>
+      <c r="H89">
+        <v>-0.1801763755261961</v>
+      </c>
+      <c r="I89">
+        <v>0.4249183409769539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2585652359293846</v>
+        <v>0.3056152299129531</v>
       </c>
       <c r="C90">
-        <v>0.2365788316630515</v>
+        <v>0.144514499051468</v>
       </c>
       <c r="D90">
-        <v>-0.03328739223587673</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04026533165199691</v>
+      </c>
+      <c r="E90">
+        <v>-0.008670686732909383</v>
+      </c>
+      <c r="F90">
+        <v>-0.0142125975943192</v>
+      </c>
+      <c r="G90">
+        <v>0.05453033434608665</v>
+      </c>
+      <c r="H90">
+        <v>0.03755879585501377</v>
+      </c>
+      <c r="I90">
+        <v>-0.05963988526263524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1544402791756997</v>
+        <v>0.09533719107163888</v>
       </c>
       <c r="C91">
-        <v>-0.1902800300447484</v>
+        <v>-0.2098201612368538</v>
       </c>
       <c r="D91">
-        <v>0.1002817683554577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1030994287197803</v>
+      </c>
+      <c r="E91">
+        <v>-0.0805415468902433</v>
+      </c>
+      <c r="F91">
+        <v>0.07417858560607786</v>
+      </c>
+      <c r="G91">
+        <v>0.009945297744374575</v>
+      </c>
+      <c r="H91">
+        <v>0.007302365000341625</v>
+      </c>
+      <c r="I91">
+        <v>-0.09112813246684026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2302707255044928</v>
+        <v>0.3076853469972794</v>
       </c>
       <c r="C92">
-        <v>0.2416820694443869</v>
+        <v>0.1758648954662179</v>
       </c>
       <c r="D92">
-        <v>0.03452101606722063</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007246287965616718</v>
+      </c>
+      <c r="E92">
+        <v>-0.09819386688482505</v>
+      </c>
+      <c r="F92">
+        <v>0.03855117003389614</v>
+      </c>
+      <c r="G92">
+        <v>0.06688657271538502</v>
+      </c>
+      <c r="H92">
+        <v>-0.005372751998814884</v>
+      </c>
+      <c r="I92">
+        <v>-0.03892551079917475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2862388960210976</v>
+        <v>0.3275423583648751</v>
       </c>
       <c r="C93">
-        <v>0.2519334830306056</v>
+        <v>0.1539392249861329</v>
       </c>
       <c r="D93">
-        <v>-0.02898383705832822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0002017751911559543</v>
+      </c>
+      <c r="E93">
+        <v>0.03658203074445715</v>
+      </c>
+      <c r="F93">
+        <v>0.01788090809177504</v>
+      </c>
+      <c r="G93">
+        <v>-0.0288646341319937</v>
+      </c>
+      <c r="H93">
+        <v>0.02023227729800341</v>
+      </c>
+      <c r="I93">
+        <v>-0.131604071558601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3024421659105198</v>
+        <v>0.1957000596055601</v>
       </c>
       <c r="C94">
-        <v>-0.2790229315824555</v>
+        <v>-0.349312799913769</v>
       </c>
       <c r="D94">
-        <v>0.3667355062594943</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3594940274328604</v>
+      </c>
+      <c r="E94">
+        <v>-0.05196849114376346</v>
+      </c>
+      <c r="F94">
+        <v>-0.09313161965197125</v>
+      </c>
+      <c r="G94">
+        <v>0.2682179783133832</v>
+      </c>
+      <c r="H94">
+        <v>0.1097455005645483</v>
+      </c>
+      <c r="I94">
+        <v>0.4373687443686373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03480368582711153</v>
+        <v>0.02951381040240893</v>
       </c>
       <c r="C95">
-        <v>-0.04545126062344761</v>
+        <v>-0.06680568006362693</v>
       </c>
       <c r="D95">
-        <v>-0.08603108849501025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1108067663291797</v>
+      </c>
+      <c r="E95">
+        <v>-0.1949633146429867</v>
+      </c>
+      <c r="F95">
+        <v>-0.1909368737920984</v>
+      </c>
+      <c r="G95">
+        <v>-0.171760464042522</v>
+      </c>
+      <c r="H95">
+        <v>-0.4755250158007295</v>
+      </c>
+      <c r="I95">
+        <v>0.4542532978678383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-8.494239810794951e-06</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000135092474408506</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0003516911214288953</v>
+      </c>
+      <c r="E97">
+        <v>0.000441489050493198</v>
+      </c>
+      <c r="F97">
+        <v>-0.00151520853160404</v>
+      </c>
+      <c r="G97">
+        <v>-0.001192132690596012</v>
+      </c>
+      <c r="H97">
+        <v>-0.001331226777639515</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004555557478620928</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.15222320688978</v>
+        <v>0.1272493032213562</v>
       </c>
       <c r="C98">
-        <v>-0.07533348371685172</v>
+        <v>-0.1259926557280787</v>
       </c>
       <c r="D98">
-        <v>-0.1359866505082583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06460269033095915</v>
+      </c>
+      <c r="E98">
+        <v>0.2934061782470647</v>
+      </c>
+      <c r="F98">
+        <v>-0.14005458739133</v>
+      </c>
+      <c r="G98">
+        <v>-0.2263708354090127</v>
+      </c>
+      <c r="H98">
+        <v>0.07750527703199912</v>
+      </c>
+      <c r="I98">
+        <v>-0.02524316632546379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004436217683535564</v>
+        <v>-0.00199240420915832</v>
       </c>
       <c r="C101">
-        <v>-0.01992909908883024</v>
+        <v>-0.02537981853604558</v>
       </c>
       <c r="D101">
-        <v>-0.1017847777678427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.103701350057905</v>
+      </c>
+      <c r="E101">
+        <v>0.03033945799404726</v>
+      </c>
+      <c r="F101">
+        <v>0.03122021501238175</v>
+      </c>
+      <c r="G101">
+        <v>0.04626029417425422</v>
+      </c>
+      <c r="H101">
+        <v>-0.1012556710205505</v>
+      </c>
+      <c r="I101">
+        <v>-0.01846337195207243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.108812736019764</v>
+        <v>0.05831667410864934</v>
       </c>
       <c r="C102">
-        <v>-0.1529831030244717</v>
+        <v>-0.1530925660129805</v>
       </c>
       <c r="D102">
-        <v>0.07157168119434233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08713321565078094</v>
+      </c>
+      <c r="E102">
+        <v>-0.03225971571461405</v>
+      </c>
+      <c r="F102">
+        <v>-0.05838245910952795</v>
+      </c>
+      <c r="G102">
+        <v>0.005023633049362655</v>
+      </c>
+      <c r="H102">
+        <v>-0.0509401287932744</v>
+      </c>
+      <c r="I102">
+        <v>-0.04133986480114015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
